--- a/Research/2018/March 2018/Products/RawData/Quilling Tools/PR_QuillingTools.xlsx
+++ b/Research/2018/March 2018/Products/RawData/Quilling Tools/PR_QuillingTools.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>S.No</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Kabeer</t>
+  </si>
+  <si>
+    <t>Udhayam</t>
   </si>
 </sst>
 </file>
@@ -225,12 +228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -255,6 +252,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,32 +547,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="82.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="7" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -825,7 +828,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -892,47 +895,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10">
+      <c r="C17" s="10"/>
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10">
+      <c r="C18" s="10"/>
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -956,29 +959,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="18">
         <f>SUM(F2:F19)</f>
         <v>78.5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="17"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -993,18 +996,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1017,19 +1021,69 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>43173</v>
       </c>
       <c r="D3">
         <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="16">
+        <v>43173</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16">
+        <v>43174</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="16">
+        <v>43174</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
